--- a/Tesis/Ganancias.xlsx
+++ b/Tesis/Ganancias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maestria de Sofware\Maestria-de-Sofware\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F117202-EB9A-4034-BE49-36B826D78F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD385B6F-2E80-42BE-A651-E02D5506DE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69223594-CF25-44B2-A5A2-49DC602138B9}"/>
   </bookViews>
@@ -1717,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE4726B-553A-4FC2-887D-CEC9C4954284}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,6 +1804,16 @@
         <v>15.23</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
+        <f>SUM(C2:C5)</f>
+        <v>2566.39</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(D2:D5)</f>
+        <v>559.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
